--- a/AcmeperformerFraamWork/Data/Config.xlsx
+++ b/AcmeperformerFraamWork/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mai\UiPath\AcmeperformerFraamWork\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mai\UiPath\Acme-Uipath-Reframework\AcmeperformerFraamWork\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FB29E-E203-4D12-BE72-5C577186B399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7726E57B-2C23-46AD-9982-DBE499A75132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2970" windowWidth="21600" windowHeight="10845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -181,13 +181,25 @@
   </si>
   <si>
     <t>AcmeUpdateItemURL</t>
+  </si>
+  <si>
+    <t>strMail</t>
+  </si>
+  <si>
+    <t>Excel.exe;Chrome.exe</t>
+  </si>
+  <si>
+    <t>ashrakathamza95@gmail.com</t>
+  </si>
+  <si>
+    <t>AppsToKill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,6 +235,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +277,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -664,8 +683,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2829,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
